--- a/aichan/505973827808944080_2021-03-25_19-56-52.xlsx
+++ b/aichan/505973827808944080_2021-03-25_19-56-52.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -552,10 +568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:49:51</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44333.95128472222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -615,10 +629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:49:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44333.95113425926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -678,10 +690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:49:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44333.95105324074</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -742,10 +752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-05-17 22:48:22</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44333.95025462963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -807,10 +815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-05-11 19:48:06</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44327.82506944444</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -891,10 +897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-05-09 09:27:59</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44325.39443287037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -954,10 +958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-05-04 00:03:33</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44320.00246527778</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1029,10 +1031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-29 16:37:53</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44315.69297453704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1113,10 +1113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-24 11:37:03</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44310.4840625</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1176,10 +1174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-22 18:26:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44308.76828703703</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1256,10 +1252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:54:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44308.45480324074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:09:10</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44307.46469907407</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1408,10 +1400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-20 12:05:06</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44306.50354166667</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1484,10 +1474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-19 22:51:08</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44305.95217592592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1555,10 +1543,8 @@
           <t>4435963712</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-19 10:53:30</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44305.45381944445</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1632,10 +1618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:26:57</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44305.01871527778</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1716,10 +1700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-18 22:43:26</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44304.9468287037</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1788,10 +1770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-16 07:25:29</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44302.30936342593</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1867,10 +1847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-16 02:15:34</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44302.09414351852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1942,10 +1920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-13 20:20:35</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44299.84762731481</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2013,10 +1989,8 @@
           <t>4313809679</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-12 13:35:08</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44298.56606481481</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2076,10 +2050,8 @@
           <t>4313809679</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-11 06:48:38</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44297.28377314815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2161,10 +2133,8 @@
           <t>4313809679</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-11 01:34:06</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44297.06534722223</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2224,10 +2194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-09 01:44:43</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44295.07271990741</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2302,10 +2270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-08 07:40:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44294.31961805555</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2370,10 +2336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-07 19:54:53</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44293.82978009259</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -2448,10 +2412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-07 00:29:35</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44293.02054398148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2524,10 +2486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-05 17:51:08</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44291.74384259259</v>
       </c>
       <c r="I29" t="n">
         <v>9</v>
@@ -2608,10 +2568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-05 12:01:36</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44291.50111111111</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2675,10 +2633,8 @@
           <t>4366881508</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-05 02:56:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44291.12274305556</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2758,10 +2714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-04 14:31:33</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44290.60524305556</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2837,10 +2791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-04 14:16:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44290.59491898148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2904,10 +2856,8 @@
           <t>4313798319</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-03 01:45:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44289.0731712963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3000,10 +2950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-29 18:41:30</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44284.77881944444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3067,10 +3015,8 @@
           <t>4332306375</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-29 10:11:01</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44284.42431712963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3158,10 +3104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-27 15:05:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44282.62850694444</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3225,10 +3169,8 @@
           <t>4323491687</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-27 15:00:43</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44282.62549768519</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3292,10 +3234,8 @@
           <t>4322955537</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-27 12:52:25</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44282.53640046297</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3359,10 +3299,8 @@
           <t>4314396863</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:22:57</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44281.97427083334</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -3434,10 +3372,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-26 23:21:55</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44281.97355324074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3509,10 +3445,8 @@
           <t>4315247282</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-26 22:03:29</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44281.91908564815</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3582,10 +3516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-26 21:19:41</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44281.88866898148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3661,10 +3593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-26 14:46:31</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44281.61563657408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3732,10 +3662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-26 10:33:37</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44281.44001157407</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3803,10 +3731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-26 09:20:27</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44281.38920138889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3874,10 +3800,8 @@
           <t>4316882360</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-26 02:39:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44281.11103009259</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3950,10 +3874,8 @@
           <t>4313798319</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-26 00:48:07</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44281.03341435185</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4025,10 +3947,8 @@
           <t>4314016086</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:28:05</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44280.97783564815</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4096,10 +4016,8 @@
           <t>4313485857</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:11:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44280.96609953704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4171,10 +4089,8 @@
           <t>4316121822</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:49:09</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44280.95079861111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4242,10 +4158,8 @@
           <t>4315247282</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:33:06</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44280.93965277778</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4305,10 +4219,8 @@
           <t>4315247282</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:31:28</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44280.93851851852</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4368,10 +4280,8 @@
           <t>4316005813</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:26:42</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44280.93520833334</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4431,10 +4341,8 @@
           <t>4315247282</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:25:02</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44280.93405092593</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4495,10 +4403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:24:22</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44280.93358796297</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4563,10 +4469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:17:49</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44280.92903935185</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4634,10 +4538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:07:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44280.92195601852</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4705,10 +4607,8 @@
           <t>4315876475</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-25 22:02:27</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44280.91836805556</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4784,10 +4684,8 @@
           <t>4313800467</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:17:23</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44280.88707175926</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4847,10 +4745,8 @@
           <t>4313800467</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-25 21:00:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44280.87508101852</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -4918,10 +4814,8 @@
           <t>4315415297</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:27:32</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44280.8524537037</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4993,10 +4887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:19:01</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44280.84653935185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5060,10 +4952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:14:47</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44280.84359953704</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5131,10 +5021,8 @@
           <t>4315247282</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:53:48</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44280.82902777778</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5202,10 +5090,8 @@
           <t>4315133806</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:29:04</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44280.81185185185</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5277,10 +5163,8 @@
           <t>4315038451</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:08:23</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44280.79748842592</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5348,10 +5232,8 @@
           <t>4314424833</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:07:51</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44280.79711805555</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5419,10 +5301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-25 19:02:33</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44280.7934375</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5486,10 +5366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:56:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44280.78938657408</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5565,10 +5443,8 @@
           <t>4314976625</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:54:42</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44280.78798611111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5644,10 +5520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:36:49</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44280.77556712963</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5715,10 +5589,8 @@
           <t>4314855101</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:28:05</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44280.76950231481</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5790,10 +5662,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:17:49</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44280.76237268518</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5861,10 +5731,8 @@
           <t>4314766325</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:08:25</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44280.75584490741</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5940,10 +5808,8 @@
           <t>4314728477</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-25 18:02:44</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44280.75189814815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6019,10 +5885,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:53:09</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44280.74524305556</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6086,10 +5950,8 @@
           <t>4314662655</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:45:55</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44280.74021990741</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6161,10 +6023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:43:26</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44280.73849537037</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6236,10 +6096,8 @@
           <t>4314424833</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:45:00</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44280.69791666666</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6311,10 +6169,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:38:14</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44280.69321759259</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6390,10 +6246,8 @@
           <t>4314397932</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:37:33</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44280.69274305556</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6465,10 +6319,8 @@
           <t>4314396863</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:36:38</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44280.69210648148</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6540,10 +6392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:12:10</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44280.67511574074</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6615,10 +6465,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:52:00</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44280.66111111111</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6686,10 +6534,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:50:07</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44280.65980324074</v>
       </c>
       <c r="I86" t="n">
         <v>6</v>
@@ -6761,10 +6607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:49:29</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44280.65936342593</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6836,10 +6680,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:45:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44280.65662037037</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6907,10 +6749,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:40:23</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44280.65304398148</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -6978,10 +6818,8 @@
           <t>4314179555</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:28:44</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44280.6449537037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7053,10 +6891,8 @@
           <t>4314174304</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:27:27</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44280.6440625</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7128,10 +6964,8 @@
           <t>4313798319</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:18:47</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44280.63804398148</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7203,10 +7037,8 @@
           <t>4314134942</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:13:50</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44280.63460648148</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7282,10 +7114,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:04:12</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44280.62791666666</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7349,10 +7179,8 @@
           <t>4314104830</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:03:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44280.62726851852</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7425,10 +7253,8 @@
           <t>4314107720</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-25 15:02:06</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44280.62645833333</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7501,10 +7327,8 @@
           <t>4314074258</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:52:00</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44280.61944444444</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7580,10 +7404,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:51:04</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44280.61879629629</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7651,10 +7473,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:48:21</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44280.61690972222</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7726,10 +7546,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:47:40</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44280.61643518518</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7793,10 +7611,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:45:57</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44280.61524305555</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7874,10 +7690,8 @@
           <t>4313994407</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:43:11</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44280.61332175926</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7945,10 +7759,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:41:27</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44280.61211805556</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8016,10 +7828,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:38:38</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44280.61016203704</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8097,10 +7907,8 @@
           <t>4314024963</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:35:11</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44280.60776620371</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8172,10 +7980,8 @@
           <t>4314016086</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:28:42</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44280.60326388889</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8239,10 +8045,8 @@
           <t>4313994407</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:24:04</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44280.6000462963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8306,10 +8110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:22:03</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44280.59864583334</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8381,10 +8183,8 @@
           <t>4313982789</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:18:58</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44280.59650462963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8456,10 +8256,8 @@
           <t>4313985286</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:17:32</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44280.59550925926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8528,10 +8326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-25 14:16:51</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44280.59503472222</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8603,10 +8399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:52:50</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44280.57835648148</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8674,10 +8468,8 @@
           <t>4313902595</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:51:38</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44280.57752314815</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8745,10 +8537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:50:39</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44280.57684027778</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8820,10 +8610,8 @@
           <t>4313876717</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:42:49</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44280.57140046296</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8891,10 +8679,8 @@
           <t>4313876109</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:42:18</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44280.57104166667</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8965,10 +8751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:39:01</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44280.56876157408</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9044,10 +8828,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:36:43</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44280.56716435185</v>
       </c>
       <c r="I118" t="n">
         <v>5</v>
@@ -9115,10 +8897,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:35:10</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44280.56608796296</v>
       </c>
       <c r="I119" t="n">
         <v>7</v>
@@ -9182,10 +8962,8 @@
           <t>4313831559</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:29:21</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44280.56204861111</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9261,10 +9039,8 @@
           <t>4313821161</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:26:36</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44280.56013888889</v>
       </c>
       <c r="I121" t="n">
         <v>4</v>
@@ -9336,10 +9112,8 @@
           <t>4313825225</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:26:35</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44280.56012731481</v>
       </c>
       <c r="I122" t="n">
         <v>10</v>
@@ -9399,10 +9173,8 @@
           <t>4313814809</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:26:14</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44280.55988425926</v>
       </c>
       <c r="I123" t="n">
         <v>6</v>
@@ -9478,10 +9250,8 @@
           <t>4313809892</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:32</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44280.55939814815</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9541,10 +9311,8 @@
           <t>4313809679</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:22</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44280.5592824074</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9623,10 +9391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:15</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44280.55920138889</v>
       </c>
       <c r="I126" t="n">
         <v>5</v>
@@ -9702,10 +9468,8 @@
           <t>4313695268</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:14</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44280.55918981481</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9777,10 +9541,8 @@
           <t>4313816518</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:14</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44280.55918981481</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9856,10 +9618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:25:12</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44280.55916666667</v>
       </c>
       <c r="I129" t="n">
         <v>6</v>
@@ -9931,10 +9691,8 @@
           <t>4313800467</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:23:15</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44280.5578125</v>
       </c>
       <c r="I130" t="n">
         <v>5</v>
@@ -9994,10 +9752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:22:40</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44280.55740740741</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10061,10 +9817,8 @@
           <t>4313798319</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:20:53</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44280.55616898148</v>
       </c>
       <c r="I132" t="n">
         <v>29</v>
@@ -10124,10 +9878,8 @@
           <t>4313784327</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:17:42</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44280.55395833333</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10203,10 +9955,8 @@
           <t>4313790081</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:17:38</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44280.55391203704</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10274,10 +10024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:17:29</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44280.55380787037</v>
       </c>
       <c r="I135" t="n">
         <v>81</v>
@@ -10341,10 +10089,8 @@
           <t>4313471527</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:16:15</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44280.55295138889</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10416,10 +10162,8 @@
           <t>4313773997</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:15:22</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44280.55233796296</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10479,10 +10223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:11:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44280.54981481482</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10554,10 +10296,8 @@
           <t>4313749867</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:09:50</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44280.54849537037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10625,10 +10365,8 @@
           <t>4313738311</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:05:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44280.54548611111</v>
       </c>
       <c r="I140" t="n">
         <v>6</v>
@@ -10704,10 +10442,8 @@
           <t>4313740394</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:05:21</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44280.54538194444</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10779,10 +10515,8 @@
           <t>4313727454</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:03:19</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44280.5439699074</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10853,10 +10587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-25 13:02:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44280.54366898148</v>
       </c>
       <c r="I143" t="n">
         <v>254</v>
@@ -10932,10 +10664,8 @@
           <t>4313695268</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:55:06</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44280.53826388889</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11003,10 +10733,8 @@
           <t>4313691962</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:54:12</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44280.53763888889</v>
       </c>
       <c r="I145" t="n">
         <v>137</v>
@@ -11074,10 +10802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:52:37</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44280.53653935185</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11149,10 +10875,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:52:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44280.53641203704</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11228,10 +10952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:51:07</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44280.53549768519</v>
       </c>
       <c r="I148" t="n">
         <v>8</v>
@@ -11299,10 +11021,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:50:02</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44280.53474537037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11378,10 +11098,8 @@
           <t>4313658366</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:48:22</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44280.53358796296</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11445,10 +11163,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:46:46</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44280.53247685185</v>
       </c>
       <c r="I151" t="n">
         <v>10</v>
@@ -11520,10 +11236,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:46:03</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44280.53197916667</v>
       </c>
       <c r="I152" t="n">
         <v>19</v>
@@ -11595,10 +11309,8 @@
           <t>4313648167</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:45:11</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44280.53137731482</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11658,10 +11370,8 @@
           <t>4313642963</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:50</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44280.53113425926</v>
       </c>
       <c r="I154" t="n">
         <v>4</v>
@@ -11725,10 +11435,8 @@
           <t>4313642617</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:37</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44280.5309837963</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11796,10 +11504,8 @@
           <t>4313639017</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:44:30</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44280.53090277778</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11871,10 +11577,8 @@
           <t>4313633048</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:53</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44280.52908564815</v>
       </c>
       <c r="I157" t="n">
         <v>8</v>
@@ -11938,10 +11642,8 @@
           <t>4313627347</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:41:14</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44280.52863425926</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12020,10 +11722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:37:27</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44280.52600694444</v>
       </c>
       <c r="I159" t="n">
         <v>77</v>
@@ -12095,10 +11795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:35:07</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44280.52438657408</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12170,10 +11868,8 @@
           <t>4313595361</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:33:32</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44280.52328703704</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12245,10 +11941,8 @@
           <t>4313590031</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:32:24</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44280.5225</v>
       </c>
       <c r="I162" t="n">
         <v>4</v>
@@ -12316,10 +12010,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:23</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44280.52179398148</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12396,10 +12088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:31:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44280.52168981481</v>
       </c>
       <c r="I164" t="n">
         <v>63</v>
@@ -12459,10 +12149,8 @@
           <t>4313576300</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:30:02</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44280.52085648148</v>
       </c>
       <c r="I165" t="n">
         <v>10</v>
@@ -12526,10 +12214,8 @@
           <t>4313575617</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:29:36</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44280.52055555556</v>
       </c>
       <c r="I166" t="n">
         <v>13</v>
@@ -12601,10 +12287,8 @@
           <t>4313569356</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:29:36</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44280.52055555556</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12680,10 +12364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:29:10</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44280.52025462963</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12747,10 +12429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:28:26</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44280.51974537037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12826,10 +12506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:25:33</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44280.51774305556</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12905,10 +12583,8 @@
           <t>4313545613</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:23:06</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44280.51604166667</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12976,10 +12652,8 @@
           <t>4313530344</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:44</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44280.51370370371</v>
       </c>
       <c r="I172" t="n">
         <v>13</v>
@@ -13051,10 +12725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:19:19</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44280.51341435185</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13130,10 +12802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:41</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44280.51297453704</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13197,10 +12867,8 @@
           <t>4313493510</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:18:08</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44280.51259259259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13264,10 +12932,8 @@
           <t>4313520829</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:17:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44280.51200231481</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13343,10 +13009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:16:06</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44280.51118055556</v>
       </c>
       <c r="I177" t="n">
         <v>22</v>
@@ -13406,10 +13070,8 @@
           <t>4313511420</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:14:54</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44280.51034722223</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13469,10 +13131,8 @@
           <t>4313493510</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:14:48</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44280.51027777778</v>
       </c>
       <c r="I179" t="n">
         <v>18</v>
@@ -13544,10 +13204,8 @@
           <t>4313505839</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:13:55</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44280.50966435186</v>
       </c>
       <c r="I180" t="n">
         <v>18</v>
@@ -13615,10 +13273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:13:54</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44280.50965277778</v>
       </c>
       <c r="I181" t="n">
         <v>11</v>
@@ -13694,10 +13350,8 @@
           <t>4313493510</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:12:20</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44280.50856481482</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13761,10 +13415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:14</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44280.50710648148</v>
       </c>
       <c r="I183" t="n">
         <v>28</v>
@@ -13836,10 +13488,8 @@
           <t>4313485857</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:10:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44280.50703703704</v>
       </c>
       <c r="I184" t="n">
         <v>26</v>
@@ -13915,10 +13565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:09:42</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44280.50673611111</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13990,10 +13638,8 @@
           <t>4313477409</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:57</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44280.50552083334</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14061,10 +13707,8 @@
           <t>4313471527</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:07:07</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44280.50494212963</v>
       </c>
       <c r="I187" t="n">
         <v>2</v>
@@ -14137,10 +13781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:06:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44280.50471064815</v>
       </c>
       <c r="I188" t="n">
         <v>12</v>
@@ -14212,10 +13854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:45</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44280.50399305556</v>
       </c>
       <c r="I189" t="n">
         <v>444</v>
@@ -14275,10 +13915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:38</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44280.50391203703</v>
       </c>
       <c r="I190" t="n">
         <v>24</v>
@@ -14354,10 +13992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:05:01</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44280.5034837963</v>
       </c>
       <c r="I191" t="n">
         <v>4</v>
@@ -14421,10 +14057,8 @@
           <t>4313457594</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:04:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44280.50297453703</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14492,10 +14126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:47</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44280.50262731482</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14563,10 +14195,8 @@
           <t>4313447339</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:42</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44280.50256944444</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -14648,10 +14278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:31</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44280.50244212963</v>
       </c>
       <c r="I195" t="n">
         <v>469</v>
@@ -14715,10 +14343,8 @@
           <t>4313461013</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:03:16</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44280.50226851852</v>
       </c>
       <c r="I196" t="n">
         <v>76</v>
@@ -14794,10 +14420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:28</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44280.50171296296</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14865,10 +14489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:24</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44280.50166666666</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14940,10 +14562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:22</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44280.50164351852</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15019,10 +14639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:06</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44280.50145833333</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15086,10 +14704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:02:00</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44280.50138888889</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15158,10 +14774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:40</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44280.50115740741</v>
       </c>
       <c r="I202" t="n">
         <v>1559</v>
@@ -15233,10 +14847,8 @@
           <t>4313443606</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:38</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44280.50113425926</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15300,10 +14912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:21</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44280.5009375</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15375,10 +14985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:01:17</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44280.5008912037</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15450,10 +15058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:50</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44280.5005787037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15521,10 +15127,8 @@
           <t>4313447339</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:44</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44280.50050925926</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15592,10 +15196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:41</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44280.50047453704</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15663,10 +15265,8 @@
           <t>4313441851</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:28</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44280.50032407408</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15730,10 +15330,8 @@
           <t>4313441693</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:21</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44280.50024305555</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15805,10 +15403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44280.50013888889</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15880,10 +15476,8 @@
           <t>4313446556</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:12</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44280.50013888889</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15947,10 +15541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:10</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44280.50011574074</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16018,10 +15610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-25 12:00:02</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44280.50002314815</v>
       </c>
       <c r="I214" t="n">
         <v>48</v>
@@ -16089,10 +15679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:59</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44280.49998842592</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16152,10 +15740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:50</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44280.49988425926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16219,10 +15805,8 @@
           <t>4313439546</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:47</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44280.49984953704</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16299,10 +15883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:43</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44280.49980324074</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16366,10 +15948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:41</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44280.49978009259</v>
       </c>
       <c r="I219" t="n">
         <v>145</v>
@@ -16441,10 +16021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:18</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44280.49951388889</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16520,10 +16098,8 @@
           <t>4313438769</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:12</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44280.49944444445</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16595,10 +16171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:08</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44280.49939814815</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16662,10 +16236,8 @@
           <t>4313440110</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:06</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44280.499375</v>
       </c>
       <c r="I223" t="n">
         <v>4</v>
@@ -16733,10 +16305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:59:01</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44280.49931712963</v>
       </c>
       <c r="I224" t="n">
         <v>54</v>
@@ -16812,10 +16382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:53</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44280.49922453704</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16891,10 +16459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44280.4990625</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16966,10 +16532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:22</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44280.49886574074</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -17041,10 +16605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:18</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44280.49881944444</v>
       </c>
       <c r="I228" t="n">
         <v>75</v>
@@ -17116,10 +16678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:07</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44280.49869212963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17195,10 +16755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:58:04</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44280.49865740741</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -17270,10 +16828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:55</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44280.49855324074</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17341,10 +16897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:40</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44280.49837962963</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17416,10 +16970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:34</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44280.49831018518</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17491,10 +17043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:29</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44280.49825231481</v>
       </c>
       <c r="I234" t="n">
         <v>89</v>
@@ -17570,10 +17120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:26</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44280.49821759259</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17649,10 +17197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:24</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44280.49819444444</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17716,10 +17262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:20</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44280.49814814814</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17791,10 +17335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:57:13</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44280.49806712963</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
